--- a/Template/Export/Bitacora_B1_7.xlsx
+++ b/Template/Export/Bitacora_B1_7.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Template\Export\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="8715"/>
   </bookViews>
@@ -21,33 +26,34 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
+    <t>No. de registro</t>
+  </si>
+  <si>
     <t>No. operación</t>
   </si>
   <si>
+    <t>Usuario operador</t>
+  </si>
+  <si>
+    <t>Unidad de salud</t>
+  </si>
+  <si>
+    <t>Acción del registro</t>
+  </si>
+  <si>
     <t>Fecha de la operación</t>
   </si>
   <si>
-    <t>Estado del registro</t>
-  </si>
-  <si>
-    <t>Usuario operador</t>
-  </si>
-  <si>
-    <t>Unidad de salud</t>
-  </si>
-  <si>
-    <t>No. de registro</t>
-  </si>
-  <si>
-    <t>Acción del registro</t>
+    <t>ID usuario operador</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd\ h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -92,11 +98,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,7 +412,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -413,40 +422,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="50.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
